--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -921,6 +921,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="5"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="4"/>
       <name val="SimSun"/>
       <charset val="134"/>
@@ -939,11 +944,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="5"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
@@ -2023,6 +2023,9 @@
       </c>
       <c r="AG2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1" spans="1:35">
